--- a/data/listados/Cercano/L_C_Saija.xlsx
+++ b/data/listados/Cercano/L_C_Saija.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2ef5c481a427bbc/Trabajo/Value Creation Analytics SAS/Clientes/ICESI/Producto 3. TrabajoCampoyAnalisis/3. Listados/Cercano/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5420f79c2d515b70/All/PacificoTaskForce/ptfr/data/listados/Cercano/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="8_{119CA316-11BD-4F2F-8279-0846D3541D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81F4ED4C-F7B2-46B0-8EAF-65E5F701C661}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="8_{119CA316-11BD-4F2F-8279-0846D3541D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58F9F63F-0C6C-4BCF-8EF9-358832542FF3}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1'!$B$3:$E$269</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="283">
   <si>
     <t>LISTADO CERCANO</t>
   </si>
@@ -882,13 +885,16 @@
   </si>
   <si>
     <t>VIAFARA RIASCOS WENDY ROSAURA</t>
+  </si>
+  <si>
+    <t>beneficiaria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -972,19 +978,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1002,7 +1007,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEBF1DE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1300,28 +1314,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G269"/>
+  <dimension ref="B2:H269"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="2:7">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1329,2942 +1343,3743 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>23</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>33</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>34</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>35</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>36</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>37</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>38</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>39</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>40</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>41</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>42</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>43</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>44</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>45</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>46</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>47</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>48</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>49</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>50</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>51</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>52</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>53</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>54</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>55</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>56</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>57</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" t="s">
         <v>64</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>58</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>59</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <v>60</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <v>61</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>62</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <v>63</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
         <v>64</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="2">
         <v>65</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" t="s">
         <v>72</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
         <v>66</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" t="s">
         <v>73</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="2">
         <v>67</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" t="s">
         <v>74</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="2:4">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
         <v>68</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" t="s">
         <v>75</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="2:4">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
         <v>69</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" t="s">
         <v>76</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="2:4">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
         <v>70</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" t="s">
         <v>77</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="2:4">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
         <v>71</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" t="s">
         <v>78</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="2:4">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
         <v>72</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" t="s">
         <v>79</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="2:4">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
         <v>73</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" t="s">
         <v>80</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="2:4">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
         <v>74</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" t="s">
         <v>81</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="2:4">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
         <v>75</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" t="s">
         <v>82</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="2:4">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
         <v>76</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" t="s">
         <v>83</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="2:4">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="2">
         <v>77</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" t="s">
         <v>84</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="2">
         <v>78</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" t="s">
         <v>85</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="2:4">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="2">
         <v>79</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" t="s">
         <v>86</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="2:4">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="2">
         <v>80</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" t="s">
         <v>87</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="2">
         <v>81</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" t="s">
         <v>88</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="2">
         <v>82</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" t="s">
         <v>90</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="2:4">
-      <c r="B86" s="6">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B86" s="5">
         <v>83</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="2">
         <v>84</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" t="s">
         <v>92</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="2">
         <v>85</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" t="s">
         <v>93</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="2:4">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="2">
         <v>86</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" t="s">
         <v>94</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="2:4">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="2">
         <v>87</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="2:4">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="2">
         <v>88</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" t="s">
         <v>96</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="2:4">
-      <c r="B92" s="6">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B92" s="5">
         <v>89</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="2:4">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="2">
         <v>90</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" t="s">
         <v>98</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="2:4">
-      <c r="B94" s="6">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" s="5">
         <v>91</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="2:4">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="2">
         <v>92</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" t="s">
         <v>100</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="2:4">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" s="2">
         <v>93</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" t="s">
         <v>101</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" s="2">
         <v>94</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" t="s">
         <v>102</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="2:4">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" s="2">
         <v>95</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" t="s">
         <v>103</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="2:4">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" s="2">
         <v>96</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" t="s">
         <v>104</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" s="2">
         <v>97</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" t="s">
         <v>105</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="2:4">
-      <c r="B101" s="6">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B101" s="5">
         <v>98</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B102" s="2">
         <v>99</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" t="s">
         <v>107</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B103" s="2">
         <v>100</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" t="s">
         <v>108</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="2:4">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" s="2">
         <v>101</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="2:4">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" s="2">
         <v>102</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" t="s">
         <v>111</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="106" spans="2:4">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B106" s="2">
         <v>103</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" t="s">
         <v>112</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B107" s="2">
         <v>104</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" t="s">
         <v>113</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="2:4">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" s="2">
         <v>105</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" t="s">
         <v>114</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="2:4">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109" s="2">
         <v>106</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" t="s">
         <v>115</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="2:4">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B110" s="2">
         <v>107</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" t="s">
         <v>116</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="2:4">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" s="2">
         <v>108</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" t="s">
         <v>117</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="2:4">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B112" s="2">
         <v>109</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" t="s">
         <v>118</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="2:4">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" s="2">
         <v>110</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" t="s">
         <v>119</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="2:4">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114" s="2">
         <v>111</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" t="s">
         <v>120</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="2:4">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" s="2">
         <v>112</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" t="s">
         <v>121</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="2:4">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" s="2">
         <v>113</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" t="s">
         <v>122</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="2:4">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117" s="2">
         <v>114</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" t="s">
         <v>123</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="118" spans="2:4">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B118" s="2">
         <v>115</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" t="s">
         <v>124</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="119" spans="2:4">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119" s="2">
         <v>116</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" t="s">
         <v>125</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="120" spans="2:4">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B120" s="2">
         <v>117</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="121" spans="2:4">
-      <c r="B121" s="6">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B121" s="5">
         <v>118</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="122" spans="2:4">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B122" s="2">
         <v>119</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" t="s">
         <v>128</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="2:4">
-      <c r="B123" s="6">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B123" s="5">
         <v>120</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="124" spans="2:4">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" s="2">
         <v>121</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="125" spans="2:4">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" s="2">
         <v>122</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" t="s">
         <v>131</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="126" spans="2:4">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" s="2">
         <v>123</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" t="s">
         <v>132</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="2:4">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" s="2">
         <v>124</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" t="s">
         <v>134</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="128" spans="2:4">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128" s="2">
         <v>125</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" t="s">
         <v>135</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="129" spans="2:4">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" s="2">
         <v>126</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" t="s">
         <v>136</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="130" spans="2:4">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" s="2">
         <v>127</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" t="s">
         <v>137</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131" s="2">
         <v>128</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" t="s">
         <v>138</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="2:4">
-      <c r="B132" s="6">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B132" s="5">
         <v>129</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="2:4">
-      <c r="B133" s="6">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B133" s="5">
         <v>130</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C133" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="2:4">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" s="2">
         <v>131</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" t="s">
         <v>141</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="2:4">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" s="2">
         <v>132</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" t="s">
         <v>142</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="2:4">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B136" s="2">
         <v>133</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" t="s">
         <v>143</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="2:4">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137" s="2">
         <v>134</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" t="s">
         <v>144</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="138" spans="2:4">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B138" s="2">
         <v>135</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" t="s">
         <v>145</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="139" spans="2:4">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B139" s="2">
         <v>136</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" t="s">
         <v>146</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="140" spans="2:4">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B140" s="2">
         <v>137</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" t="s">
         <v>147</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="141" spans="2:4">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B141" s="2">
         <v>138</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" t="s">
         <v>148</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="142" spans="2:4">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B142" s="2">
         <v>139</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" t="s">
         <v>149</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="143" spans="2:4">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B143" s="2">
         <v>140</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" t="s">
         <v>150</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="144" spans="2:4">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B144" s="2">
         <v>141</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" t="s">
         <v>151</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="145" spans="2:4">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B145" s="2">
         <v>142</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" t="s">
         <v>152</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="146" spans="2:4">
-      <c r="B146" s="6">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B146" s="5">
         <v>143</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="147" spans="2:4">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B147" s="2">
         <v>144</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" t="s">
         <v>155</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="148" spans="2:4">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148" s="2">
         <v>145</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" t="s">
         <v>156</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="149" spans="2:4">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B149" s="2">
         <v>146</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" t="s">
         <v>157</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="150" spans="2:4">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B150" s="2">
         <v>147</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" t="s">
         <v>158</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="151" spans="2:4">
-      <c r="B151" s="6">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B151" s="5">
         <v>148</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C151" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="152" spans="2:4">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B152" s="2">
         <v>149</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" t="s">
         <v>160</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="153" spans="2:4">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B153" s="2">
         <v>150</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" t="s">
         <v>161</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="2:4">
-      <c r="B154" s="6">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B154" s="5">
         <v>151</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C154" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="2:4">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B155" s="2">
         <v>152</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" t="s">
         <v>163</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="2:4">
-      <c r="B156" s="6">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B156" s="5">
         <v>153</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C156" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D156" s="8" t="s">
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="2:4">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B157" s="2">
         <v>154</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" t="s">
         <v>165</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="2:4">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B158" s="2">
         <v>155</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" t="s">
         <v>166</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="159" spans="2:4">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B159" s="2">
         <v>156</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" t="s">
         <v>167</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="160" spans="2:4">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B160" s="2">
         <v>157</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" t="s">
         <v>168</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="161" spans="2:4">
-      <c r="B161" s="6">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B161" s="5">
         <v>158</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C161" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="162" spans="2:4">
-      <c r="B162" s="6">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B162" s="5">
         <v>159</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C162" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D162" s="8" t="s">
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="163" spans="2:4">
-      <c r="B163" s="6">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B163" s="5">
         <v>160</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C163" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D163" s="8" t="s">
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="164" spans="2:4">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B164" s="2">
         <v>161</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C164" t="s">
         <v>172</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="165" spans="2:4">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B165" s="2">
         <v>162</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C165" t="s">
         <v>173</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="166" spans="2:4">
-      <c r="B166" s="6">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B166" s="5">
         <v>163</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C166" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D166" s="8" t="s">
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="167" spans="2:4">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B167" s="2">
         <v>164</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C167" t="s">
         <v>176</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="168" spans="2:4">
-      <c r="B168" s="6">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B168" s="5">
         <v>165</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C168" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D168" s="8" t="s">
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="169" spans="2:4">
-      <c r="B169" s="6">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B169" s="5">
         <v>166</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="C169" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D169" s="8" t="s">
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="170" spans="2:4">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B170" s="2">
         <v>167</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C170" t="s">
         <v>179</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="171" spans="2:4">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B171" s="2">
         <v>168</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C171" t="s">
         <v>180</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="172" spans="2:4">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B172" s="2">
         <v>169</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C172" t="s">
         <v>181</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="173" spans="2:4">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B173" s="2">
         <v>170</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C173" t="s">
         <v>182</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="174" spans="2:4">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B174" s="2">
         <v>171</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" t="s">
         <v>183</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="175" spans="2:4">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B175" s="2">
         <v>172</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C175" t="s">
         <v>184</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="2:4">
+    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B176" s="2">
         <v>173</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C176" t="s">
         <v>185</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="2:4">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B177" s="2">
         <v>174</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" t="s">
         <v>186</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="2:4">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B178" s="2">
         <v>175</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C178" t="s">
         <v>187</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="179" spans="2:4">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B179" s="2">
         <v>176</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C179" t="s">
         <v>188</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="180" spans="2:4">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B180" s="2">
         <v>177</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="C180" t="s">
         <v>189</v>
       </c>
-      <c r="D180" s="5" t="s">
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="181" spans="2:4">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B181" s="2">
         <v>178</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C181" t="s">
         <v>190</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="182" spans="2:4">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B182" s="2">
         <v>179</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C182" t="s">
         <v>191</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="183" spans="2:4">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B183" s="2">
         <v>180</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C183" t="s">
         <v>192</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="184" spans="2:4">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B184" s="2">
         <v>181</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C184" t="s">
         <v>193</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="185" spans="2:4">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B185" s="2">
         <v>182</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C185" t="s">
         <v>194</v>
       </c>
-      <c r="D185" s="5" t="s">
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="186" spans="2:4">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B186" s="2">
         <v>183</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="C186" t="s">
         <v>195</v>
       </c>
-      <c r="D186" s="5" t="s">
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="187" spans="2:4">
-      <c r="B187" s="6">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B187" s="5">
         <v>184</v>
       </c>
-      <c r="C187" s="7" t="s">
+      <c r="C187" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D187" s="8" t="s">
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="188" spans="2:4">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B188" s="2">
         <v>185</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C188" t="s">
         <v>198</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="189" spans="2:4">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B189" s="2">
         <v>186</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="C189" t="s">
         <v>199</v>
       </c>
-      <c r="D189" s="5" t="s">
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="190" spans="2:4">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B190" s="2">
         <v>187</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="C190" t="s">
         <v>200</v>
       </c>
-      <c r="D190" s="5" t="s">
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="191" spans="2:4">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B191" s="2">
         <v>188</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C191" t="s">
         <v>201</v>
       </c>
-      <c r="D191" s="5" t="s">
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="192" spans="2:4">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B192" s="2">
         <v>189</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="C192" t="s">
         <v>202</v>
       </c>
-      <c r="D192" s="5" t="s">
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="193" spans="2:4">
-      <c r="B193" s="6">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B193" s="5">
         <v>190</v>
       </c>
-      <c r="C193" s="7" t="s">
+      <c r="C193" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D193" s="8" t="s">
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="194" spans="2:4">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B194" s="2">
         <v>191</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C194" t="s">
         <v>204</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="195" spans="2:4">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B195" s="2">
         <v>192</v>
       </c>
-      <c r="C195" s="4" t="s">
+      <c r="C195" t="s">
         <v>205</v>
       </c>
-      <c r="D195" s="5" t="s">
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="196" spans="2:4">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B196" s="2">
         <v>193</v>
       </c>
-      <c r="C196" s="4" t="s">
+      <c r="C196" t="s">
         <v>206</v>
       </c>
-      <c r="D196" s="5" t="s">
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="197" spans="2:4">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B197" s="2">
         <v>194</v>
       </c>
-      <c r="C197" s="4" t="s">
+      <c r="C197" t="s">
         <v>207</v>
       </c>
-      <c r="D197" s="5" t="s">
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="2:4">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B198" s="2">
         <v>195</v>
       </c>
-      <c r="C198" s="4" t="s">
+      <c r="C198" t="s">
         <v>208</v>
       </c>
-      <c r="D198" s="5" t="s">
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="2:4">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B199" s="2">
         <v>196</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C199" t="s">
         <v>209</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="2:4">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B200" s="2">
         <v>197</v>
       </c>
-      <c r="C200" s="4" t="s">
+      <c r="C200" t="s">
         <v>210</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="201" spans="2:4">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B201" s="2">
         <v>198</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="C201" t="s">
         <v>211</v>
       </c>
-      <c r="D201" s="5" t="s">
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="202" spans="2:4">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B202" s="2">
         <v>199</v>
       </c>
-      <c r="C202" s="4" t="s">
+      <c r="C202" t="s">
         <v>212</v>
       </c>
-      <c r="D202" s="5" t="s">
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="203" spans="2:4">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B203" s="2">
         <v>200</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="C203" t="s">
         <v>213</v>
       </c>
-      <c r="D203" s="5" t="s">
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="204" spans="2:4">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B204" s="2">
         <v>201</v>
       </c>
-      <c r="C204" s="4" t="s">
+      <c r="C204" t="s">
         <v>214</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="205" spans="2:4">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B205" s="2">
         <v>202</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C205" t="s">
         <v>215</v>
       </c>
-      <c r="D205" s="5" t="s">
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="206" spans="2:4">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B206" s="2">
         <v>203</v>
       </c>
-      <c r="C206" s="4" t="s">
+      <c r="C206" t="s">
         <v>216</v>
       </c>
-      <c r="D206" s="5" t="s">
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="207" spans="2:4">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B207" s="2">
         <v>204</v>
       </c>
-      <c r="C207" s="4" t="s">
+      <c r="C207" t="s">
         <v>217</v>
       </c>
-      <c r="D207" s="5" t="s">
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="208" spans="2:4">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B208" s="2">
         <v>205</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C208" t="s">
         <v>218</v>
       </c>
-      <c r="D208" s="5" t="s">
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="209" spans="2:4">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B209" s="2">
         <v>206</v>
       </c>
-      <c r="C209" s="4" t="s">
+      <c r="C209" t="s">
         <v>219</v>
       </c>
-      <c r="D209" s="5" t="s">
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="210" spans="2:4">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B210" s="2">
         <v>207</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="C210" t="s">
         <v>221</v>
       </c>
-      <c r="D210" s="5" t="s">
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="211" spans="2:4">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B211" s="2">
         <v>208</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="C211" t="s">
         <v>222</v>
       </c>
-      <c r="D211" s="5" t="s">
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="212" spans="2:4">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B212" s="2">
         <v>209</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="C212" t="s">
         <v>223</v>
       </c>
-      <c r="D212" s="5" t="s">
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="213" spans="2:4">
-      <c r="B213" s="6">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B213" s="5">
         <v>210</v>
       </c>
-      <c r="C213" s="7" t="s">
+      <c r="C213" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D213" s="8" t="s">
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="214" spans="2:4">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B214" s="2">
         <v>211</v>
       </c>
-      <c r="C214" s="4" t="s">
+      <c r="C214" t="s">
         <v>225</v>
       </c>
-      <c r="D214" s="5" t="s">
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="215" spans="2:4">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B215" s="2">
         <v>212</v>
       </c>
-      <c r="C215" s="4" t="s">
+      <c r="C215" t="s">
         <v>226</v>
       </c>
-      <c r="D215" s="5" t="s">
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="216" spans="2:4">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B216" s="2">
         <v>213</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C216" t="s">
         <v>227</v>
       </c>
-      <c r="D216" s="5" t="s">
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="217" spans="2:4">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B217" s="2">
         <v>214</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="C217" t="s">
         <v>228</v>
       </c>
-      <c r="D217" s="5" t="s">
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="218" spans="2:4">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B218" s="2">
         <v>215</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C218" t="s">
         <v>229</v>
       </c>
-      <c r="D218" s="5" t="s">
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="219" spans="2:4">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B219" s="2">
         <v>216</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="C219" t="s">
         <v>230</v>
       </c>
-      <c r="D219" s="5" t="s">
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="220" spans="2:4">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B220" s="2">
         <v>217</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="C220" t="s">
         <v>231</v>
       </c>
-      <c r="D220" s="5" t="s">
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="2:4">
-      <c r="B221" s="6">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B221" s="5">
         <v>218</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C221" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D221" s="8" t="s">
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="2:4">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B222" s="2">
         <v>219</v>
       </c>
-      <c r="C222" s="4" t="s">
+      <c r="C222" t="s">
         <v>233</v>
       </c>
-      <c r="D222" s="5" t="s">
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="2:4">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B223" s="2">
         <v>220</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="C223" t="s">
         <v>234</v>
       </c>
-      <c r="D223" s="5" t="s">
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="224" spans="2:4">
-      <c r="B224" s="6">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B224" s="5">
         <v>221</v>
       </c>
-      <c r="C224" s="7" t="s">
+      <c r="C224" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D224" s="8" t="s">
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="225" spans="2:4">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B225" s="2">
         <v>222</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="C225" t="s">
         <v>236</v>
       </c>
-      <c r="D225" s="5" t="s">
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="226" spans="2:4">
-      <c r="B226" s="6">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B226" s="5">
         <v>223</v>
       </c>
-      <c r="C226" s="7" t="s">
+      <c r="C226" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="D226" s="8" t="s">
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="227" spans="2:4">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B227" s="2">
         <v>224</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="C227" t="s">
         <v>238</v>
       </c>
-      <c r="D227" s="5" t="s">
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="228" spans="2:4">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B228" s="2">
         <v>225</v>
       </c>
-      <c r="C228" s="4" t="s">
+      <c r="C228" t="s">
         <v>239</v>
       </c>
-      <c r="D228" s="5" t="s">
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="229" spans="2:4">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B229" s="2">
         <v>226</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="C229" t="s">
         <v>240</v>
       </c>
-      <c r="D229" s="5" t="s">
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="230" spans="2:4">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B230" s="2">
         <v>227</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="C230" t="s">
         <v>241</v>
       </c>
-      <c r="D230" s="5" t="s">
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="231" spans="2:4">
-      <c r="B231" s="6">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B231" s="5">
         <v>228</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="C231" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D231" s="8" t="s">
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="232" spans="2:4">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B232" s="2">
         <v>229</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C232" t="s">
         <v>243</v>
       </c>
-      <c r="D232" s="5" t="s">
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="233" spans="2:4">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B233" s="2">
         <v>230</v>
       </c>
-      <c r="C233" s="4" t="s">
+      <c r="C233" t="s">
         <v>244</v>
       </c>
-      <c r="D233" s="5" t="s">
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="234" spans="2:4">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B234" s="2">
         <v>231</v>
       </c>
-      <c r="C234" s="4" t="s">
+      <c r="C234" t="s">
         <v>245</v>
       </c>
-      <c r="D234" s="5" t="s">
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="235" spans="2:4">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B235" s="2">
         <v>232</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="C235" t="s">
         <v>246</v>
       </c>
-      <c r="D235" s="5" t="s">
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="236" spans="2:4">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B236" s="2">
         <v>233</v>
       </c>
-      <c r="C236" s="4" t="s">
+      <c r="C236" t="s">
         <v>247</v>
       </c>
-      <c r="D236" s="5" t="s">
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="237" spans="2:4">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B237" s="2">
         <v>234</v>
       </c>
-      <c r="C237" s="4" t="s">
+      <c r="C237" t="s">
         <v>248</v>
       </c>
-      <c r="D237" s="5" t="s">
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="238" spans="2:4">
-      <c r="B238" s="6">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B238" s="5">
         <v>235</v>
       </c>
-      <c r="C238" s="7" t="s">
+      <c r="C238" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D238" s="8" t="s">
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="239" spans="2:4">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B239" s="2">
         <v>236</v>
       </c>
-      <c r="C239" s="4" t="s">
+      <c r="C239" t="s">
         <v>250</v>
       </c>
-      <c r="D239" s="5" t="s">
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="240" spans="2:4">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B240" s="2">
         <v>237</v>
       </c>
-      <c r="C240" s="4" t="s">
+      <c r="C240" t="s">
         <v>252</v>
       </c>
-      <c r="D240" s="5" t="s">
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="241" spans="2:4">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B241" s="2">
         <v>238</v>
       </c>
-      <c r="C241" s="4" t="s">
+      <c r="C241" t="s">
         <v>253</v>
       </c>
-      <c r="D241" s="5" t="s">
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="242" spans="2:4">
+    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B242" s="2">
         <v>239</v>
       </c>
-      <c r="C242" s="4" t="s">
+      <c r="C242" t="s">
         <v>254</v>
       </c>
-      <c r="D242" s="5" t="s">
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="243" spans="2:4">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B243" s="2">
         <v>240</v>
       </c>
-      <c r="C243" s="4" t="s">
+      <c r="C243" t="s">
         <v>255</v>
       </c>
-      <c r="D243" s="5" t="s">
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="244" spans="2:4">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B244" s="2">
         <v>241</v>
       </c>
-      <c r="C244" s="4" t="s">
+      <c r="C244" t="s">
         <v>256</v>
       </c>
-      <c r="D244" s="5" t="s">
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="245" spans="2:4">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B245" s="2">
         <v>242</v>
       </c>
-      <c r="C245" s="4" t="s">
+      <c r="C245" t="s">
         <v>257</v>
       </c>
-      <c r="D245" s="5" t="s">
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="246" spans="2:4">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B246" s="2">
         <v>243</v>
       </c>
-      <c r="C246" s="4" t="s">
+      <c r="C246" t="s">
         <v>258</v>
       </c>
-      <c r="D246" s="5" t="s">
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="2:4">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B247" s="2">
         <v>244</v>
       </c>
-      <c r="C247" s="4" t="s">
+      <c r="C247" t="s">
         <v>259</v>
       </c>
-      <c r="D247" s="5" t="s">
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="248" spans="2:4">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B248" s="2">
         <v>245</v>
       </c>
-      <c r="C248" s="4" t="s">
+      <c r="C248" t="s">
         <v>260</v>
       </c>
-      <c r="D248" s="5" t="s">
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="249" spans="2:4">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B249" s="2">
         <v>246</v>
       </c>
-      <c r="C249" s="4" t="s">
+      <c r="C249" t="s">
         <v>261</v>
       </c>
-      <c r="D249" s="5" t="s">
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="250" spans="2:4">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B250" s="2">
         <v>247</v>
       </c>
-      <c r="C250" s="4" t="s">
+      <c r="C250" t="s">
         <v>262</v>
       </c>
-      <c r="D250" s="5" t="s">
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="251" spans="2:4">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B251" s="2">
         <v>248</v>
       </c>
-      <c r="C251" s="4" t="s">
+      <c r="C251" t="s">
         <v>263</v>
       </c>
-      <c r="D251" s="5" t="s">
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="252" spans="2:4">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B252" s="2">
         <v>249</v>
       </c>
-      <c r="C252" s="4" t="s">
+      <c r="C252" t="s">
         <v>264</v>
       </c>
-      <c r="D252" s="5" t="s">
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="2:4">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B253" s="2">
         <v>250</v>
       </c>
-      <c r="C253" s="4" t="s">
+      <c r="C253" t="s">
         <v>265</v>
       </c>
-      <c r="D253" s="5" t="s">
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="2:4">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B254" s="2">
         <v>251</v>
       </c>
-      <c r="C254" s="4" t="s">
+      <c r="C254" t="s">
         <v>266</v>
       </c>
-      <c r="D254" s="5" t="s">
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="2:4">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B255" s="2">
         <v>252</v>
       </c>
-      <c r="C255" s="4" t="s">
+      <c r="C255" t="s">
         <v>267</v>
       </c>
-      <c r="D255" s="5" t="s">
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="256" spans="2:4">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B256" s="2">
         <v>253</v>
       </c>
-      <c r="C256" s="4" t="s">
+      <c r="C256" t="s">
         <v>268</v>
       </c>
-      <c r="D256" s="5" t="s">
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="257" spans="2:4">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B257" s="2">
         <v>254</v>
       </c>
-      <c r="C257" s="4" t="s">
+      <c r="C257" t="s">
         <v>269</v>
       </c>
-      <c r="D257" s="5" t="s">
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="258" spans="2:4">
-      <c r="B258" s="6">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B258" s="5">
         <v>255</v>
       </c>
-      <c r="C258" s="7" t="s">
+      <c r="C258" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D258" s="8" t="s">
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="259" spans="2:4">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B259" s="2">
         <v>256</v>
       </c>
-      <c r="C259" s="4" t="s">
+      <c r="C259" t="s">
         <v>271</v>
       </c>
-      <c r="D259" s="5" t="s">
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="260" spans="2:4">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B260" s="2">
         <v>257</v>
       </c>
-      <c r="C260" s="4" t="s">
+      <c r="C260" t="s">
         <v>272</v>
       </c>
-      <c r="D260" s="5" t="s">
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="261" spans="2:4">
+    <row r="261" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B261" s="2">
         <v>258</v>
       </c>
-      <c r="C261" s="4" t="s">
+      <c r="C261" t="s">
         <v>273</v>
       </c>
-      <c r="D261" s="5" t="s">
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="262" spans="2:4">
-      <c r="B262" s="6">
+    <row r="262" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B262" s="5">
         <v>259</v>
       </c>
-      <c r="C262" s="7" t="s">
+      <c r="C262" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D262" s="8" t="s">
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="263" spans="2:4">
-      <c r="B263" s="6">
+    <row r="263" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B263" s="5">
         <v>260</v>
       </c>
-      <c r="C263" s="7" t="s">
+      <c r="C263" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D263" s="8" t="s">
+      <c r="D263">
+        <v>1</v>
+      </c>
+      <c r="E263" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="264" spans="2:4">
+    <row r="264" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B264" s="2">
         <v>261</v>
       </c>
-      <c r="C264" s="4" t="s">
+      <c r="C264" t="s">
         <v>276</v>
       </c>
-      <c r="D264" s="5" t="s">
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="265" spans="2:4">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B265" s="2">
         <v>262</v>
       </c>
-      <c r="C265" s="4" t="s">
+      <c r="C265" t="s">
         <v>277</v>
       </c>
-      <c r="D265" s="5" t="s">
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="266" spans="2:4">
-      <c r="B266" s="6">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B266" s="5">
         <v>263</v>
       </c>
-      <c r="C266" s="7" t="s">
+      <c r="C266" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D266" s="8" t="s">
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="E266" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="267" spans="2:4">
-      <c r="B267" s="6">
+    <row r="267" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B267" s="5">
         <v>264</v>
       </c>
-      <c r="C267" s="7" t="s">
+      <c r="C267" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D267" s="8" t="s">
+      <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="E267" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="268" spans="2:4">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B268" s="2">
         <v>265</v>
       </c>
-      <c r="C268" s="4" t="s">
+      <c r="C268" t="s">
         <v>280</v>
       </c>
-      <c r="D268" s="5" t="s">
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="269" spans="2:4">
-      <c r="B269" s="6">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B269" s="5">
         <v>266</v>
       </c>
-      <c r="C269" s="7" t="s">
+      <c r="C269" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D269" s="8" t="s">
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="E269" s="7" t="s">
         <v>251</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
